--- a/AzentioAutomationFramework_CSM_Vimal/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Vimal/TestData/CSMTestData.xlsx
@@ -1,24 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_285\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D1A60A2-EE4F-4F5F-B078-352038367B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="0"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="967" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CSM_Login" sheetId="1" r:id="rId3"/>
-    <sheet name="CSMParam_login" sheetId="2" r:id="rId4"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
-    <sheet name="CSMTransactionStaffAcc" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CSM_Login" sheetId="2" r:id="rId2"/>
+    <sheet name="CSMParam_login" sheetId="3" r:id="rId3"/>
+    <sheet name="SadsLogin" sheetId="4" r:id="rId4"/>
+    <sheet name="CSMTransactionStaffAcc" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>TrxType</t>
+  </si>
+  <si>
+    <t>BranchCode1</t>
+  </si>
+  <si>
+    <t>CurrencyCode1</t>
+  </si>
+  <si>
+    <t>GLCode1</t>
+  </si>
+  <si>
+    <t>CIFNo1</t>
+  </si>
+  <si>
+    <t>SLNO1</t>
+  </si>
+  <si>
+    <t>TRXCURCODE</t>
+  </si>
+  <si>
+    <t>CreditAmount1</t>
+  </si>
+  <si>
+    <t>CreditAmount2</t>
+  </si>
+  <si>
+    <t>DebitAmount1</t>
+  </si>
+  <si>
+    <t>DebitAmount2</t>
+  </si>
+  <si>
+    <t>BranchCode2</t>
+  </si>
+  <si>
+    <t>CurrencyCode2</t>
+  </si>
+  <si>
+    <t>GLCode2`</t>
+  </si>
+  <si>
+    <t>CIFNo2</t>
+  </si>
+  <si>
+    <t>SLNO2</t>
+  </si>
+  <si>
+    <t>BranchCode3</t>
+  </si>
+  <si>
+    <t>CurrencyCode3</t>
+  </si>
+  <si>
+    <t>GLCode3</t>
+  </si>
+  <si>
+    <t>CIFNo3</t>
+  </si>
+  <si>
+    <t>SLNO3</t>
+  </si>
+  <si>
+    <t>TRS_0051</t>
+  </si>
   <si>
     <t>Stage</t>
   </si>
@@ -63,9 +151,6 @@
   </si>
   <si>
     <t>SYSADM1</t>
-  </si>
-  <si>
-    <t>TestCase ID</t>
   </si>
   <si>
     <t>Data Set ID</t>
@@ -137,77 +222,70 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="178" formatCode="&quot;Rs.&quot;#,##0.00;[RED]&quot;-Rs.&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="&quot;Rs.&quot;#,##0.00;[RED]-&quot;Rs.&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]&quot;-Rs.&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="30"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Consolas"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -219,38 +297,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="29"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDD9C3"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,161 +342,79 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="26" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="26" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="26" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="12">
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading1 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Heading1_20_1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="26"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="27"/>
-    <cellStyle name="Heading_20_1" xfId="28"/>
-    <cellStyle name="Heading1_20_1" xfId="29"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="30"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="31"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="32"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="33"/>
-    <cellStyle name="Result_20_1" xfId="34"/>
-    <cellStyle name="Result2_20_1" xfId="35"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="36"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="37"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="38"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="39"/>
+    <cellStyle name="Result 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Result_20_1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Result2 1" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Result2_20_1" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -443,16 +439,16 @@
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00BFBFBF"/>
       <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="0099FF66"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF3300"/>
+      <rgbColor rgb="000080FF"/>
+      <rgbColor rgb="00C0C0FF"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="00FFFF00"/>
@@ -461,30 +457,30 @@
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008080"/>
       <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00DDD9C3"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00D9D9D9"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
       <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
     </indexedColors>
   </colors>
   <extLst>
@@ -794,330 +790,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aa677573-a49d-43eb-89d1-20f52aa3545f}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.571428571428571" style="2" customWidth="1"/>
-    <col min="2" max="5" width="14.142857142857142" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="14.571428571428571" style="2"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:22">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>217</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2">
+        <v>840</v>
+      </c>
+      <c r="E2">
+        <v>312</v>
+      </c>
+      <c r="F2">
+        <v>993606</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>840</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>840</v>
+      </c>
+      <c r="O2">
+        <v>312</v>
+      </c>
+      <c r="P2">
+        <v>993619</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.05">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>321</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="S2">
+        <v>840</v>
+      </c>
+      <c r="T2">
+        <v>313</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874015748031495" right="0.7874015748031495" top="1.0834645669291338" bottom="1.0834645669291338" header="0.944488188976378" footer="0.944488188976378"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f4fc865f-69dd-4ce2-9871-da674ff2f52c}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.571428571428573" style="2" customWidth="1"/>
-    <col min="2" max="5" width="14.142857142857142" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="14.571428571428571" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
+    <col min="2" max="5" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="14.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6">
+        <v>123</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="E2" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6">
+        <v>321</v>
+      </c>
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874015748031495" right="0.7874015748031495" top="1.0834645669291338" bottom="1.0834645669291338" header="0.944488188976378" footer="0.944488188976378"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0833333333333333" bottom="1.0833333333333333" header="0.94444444444444442" footer="0.94444444444444442"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388a85e9-d195-4a1b-a96a-7725f7726704}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14.142857142857142" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="14.571428571428571" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="4" customWidth="1"/>
+    <col min="2" max="5" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="14.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.05">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6">
+        <v>123</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.05">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.05">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123</v>
+      <c r="E2" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874015748031495" right="0.7874015748031495" top="1.0834645669291338" bottom="1.0834645669291338" header="0.944488188976378" footer="0.944488188976378"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0833333333333333" bottom="1.0833333333333333" header="0.94444444444444442" footer="0.94444444444444442"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1cb341f3-5044-43ee-959f-bfcf09dabeb7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="3" width="14.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="14.5703125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0833333333333333" bottom="1.0833333333333333" header="0.94444444444444442" footer="0.94444444444444442"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.714285714285715" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.428571428571427" style="7" customWidth="1"/>
-    <col min="3" max="10" width="14.571428571428571" style="7"/>
-    <col min="11" max="11" width="18.571428571428573" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17" style="7" customWidth="1"/>
-    <col min="13" max="15" width="14.571428571428571" style="7"/>
-    <col min="16" max="16" width="16.571428571428573" style="7" customWidth="1"/>
-    <col min="17" max="17" width="18.571428571428573" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="14.571428571428571" style="7"/>
+    <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="10" width="14.5703125" style="2"/>
+    <col min="11" max="11" width="18.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17" style="2" customWidth="1"/>
+    <col min="13" max="15" width="14.5703125" style="2"/>
+    <col min="16" max="16" width="16.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="14.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.05">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>31</v>
+    <row r="1" spans="1:17" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.25">
-      <c r="A2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="8">
+    <row r="2" spans="1:17" ht="15.75">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9">
         <v>5698</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9">
         <v>95916</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>993558</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>45070</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>377</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>840</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="9">
         <v>0</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="9">
         <v>1000</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>44166</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="10">
         <v>45070</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>37</v>
+      <c r="P2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7874015748031495" right="0.7874015748031495" top="1.0834645669291338" bottom="1.0834645669291338" header="0.944488188976378" footer="0.944488188976378"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0833333333333333" bottom="1.0833333333333333" header="0.94444444444444442" footer="0.94444444444444442"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_CSM_Vimal/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Vimal/TestData/CSMTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_285\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_164f\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D1A60A2-EE4F-4F5F-B078-352038367B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B42FAE2-3B33-4FAD-AF98-E7E3BA49646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="967" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -63,6 +63,21 @@
     <t>TRXCURCODE</t>
   </si>
   <si>
+    <t>BranchCodeCUR</t>
+  </si>
+  <si>
+    <t>CurrencyCodeCUR</t>
+  </si>
+  <si>
+    <t>GLCodeCUR</t>
+  </si>
+  <si>
+    <t>CIFNoCUR</t>
+  </si>
+  <si>
+    <t>SLNOCUR</t>
+  </si>
+  <si>
     <t>CreditAmount1</t>
   </si>
   <si>
@@ -81,7 +96,7 @@
     <t>CurrencyCode2</t>
   </si>
   <si>
-    <t>GLCode2`</t>
+    <t>GLCode2</t>
   </si>
   <si>
     <t>CIFNo2</t>
@@ -108,6 +123,24 @@
     <t>TRS_0051</t>
   </si>
   <si>
+    <t>TRS_098</t>
+  </si>
+  <si>
+    <t>TRS_099</t>
+  </si>
+  <si>
+    <t>TRS_100</t>
+  </si>
+  <si>
+    <t>TRS_101</t>
+  </si>
+  <si>
+    <t>TRS_102</t>
+  </si>
+  <si>
+    <t>TRS_103</t>
+  </si>
+  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -135,10 +168,19 @@
     <t>CHRISAG</t>
   </si>
   <si>
+    <t>CSMUser3</t>
+  </si>
+  <si>
+    <t>VIMAL</t>
+  </si>
+  <si>
     <t>CSMParamUser1</t>
   </si>
   <si>
     <t>GOWRI</t>
+  </si>
+  <si>
+    <t>CSMParamUser3</t>
   </si>
   <si>
     <t>Sadsuser1</t>
@@ -791,25 +833,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="8" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="18" width="13" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,10 +918,25 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>217</v>
@@ -902,41 +959,248 @@
       <c r="H2">
         <v>840</v>
       </c>
-      <c r="I2">
+      <c r="N2">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="Q2">
         <v>50</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>840</v>
-      </c>
-      <c r="O2">
+      <c r="S2">
+        <v>840</v>
+      </c>
+      <c r="T2">
         <v>312</v>
       </c>
-      <c r="P2">
+      <c r="U2">
         <v>993619</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>840</v>
-      </c>
-      <c r="T2">
-        <v>313</v>
       </c>
       <c r="V2">
         <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>840</v>
+      </c>
+      <c r="Y2">
+        <v>313</v>
+      </c>
+      <c r="Z2">
+        <v>993607</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>218</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>840</v>
+      </c>
+      <c r="E3">
+        <v>314</v>
+      </c>
+      <c r="F3">
+        <v>993627</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>840</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>840</v>
+      </c>
+      <c r="K3">
+        <v>161004</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>218</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>840</v>
+      </c>
+      <c r="E4">
+        <v>314</v>
+      </c>
+      <c r="F4">
+        <v>993629</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>840</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>218</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>840</v>
+      </c>
+      <c r="E5">
+        <v>314</v>
+      </c>
+      <c r="F5">
+        <v>993630</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>840</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>219</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>840</v>
+      </c>
+      <c r="E6">
+        <v>314</v>
+      </c>
+      <c r="F6">
+        <v>993628</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>840</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>840</v>
+      </c>
+      <c r="E7">
+        <v>314</v>
+      </c>
+      <c r="F7">
+        <v>993628</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>840</v>
+      </c>
+      <c r="N7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>219</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>840</v>
+      </c>
+      <c r="E8">
+        <v>314</v>
+      </c>
+      <c r="F8">
+        <v>993627</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>840</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>840</v>
+      </c>
+      <c r="K8">
+        <v>161004</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -951,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
@@ -966,27 +1230,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6">
         <v>123</v>
@@ -1000,10 +1264,10 @@
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6">
         <v>321</v>
@@ -1012,6 +1276,23 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1027,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
@@ -1042,27 +1323,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6">
         <v>123</v>
@@ -1071,6 +1352,23 @@
         <v>1</v>
       </c>
       <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1100,21 +1398,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6">
         <v>123</v>
@@ -1122,10 +1420,10 @@
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6">
         <v>123</v>
@@ -1165,69 +1463,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9">
         <v>5698</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F2" s="9">
         <v>95916</v>
@@ -1260,10 +1558,10 @@
         <v>45070</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/AzentioAutomationFramework_CSM_Vimal/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Vimal/TestData/CSMTestData.xlsx
@@ -4,34 +4,35 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="926" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="926" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction_614" sheetId="18" r:id="rId1"/>
-    <sheet name="CSM_Transactions_TestData" sheetId="17" r:id="rId2"/>
-    <sheet name="TestExecution" sheetId="16" r:id="rId3"/>
-    <sheet name="CSM_Login" sheetId="1" r:id="rId4"/>
-    <sheet name="CSMParam_login" sheetId="2" r:id="rId5"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId6"/>
-    <sheet name="CSM_ClientProcessingStatement" sheetId="4" r:id="rId7"/>
-    <sheet name="CSM_LostAndFoundManagement" sheetId="5" r:id="rId8"/>
-    <sheet name="AmendChequeCardStatusTestData" sheetId="6" r:id="rId9"/>
-    <sheet name="AmendChequeCard_ExeTrack" sheetId="7" r:id="rId10"/>
-    <sheet name="CSM_Transaction" sheetId="8" r:id="rId11"/>
-    <sheet name="CSM_ChequeBookrequest" sheetId="9" r:id="rId12"/>
-    <sheet name="ChargeWaiverExecutionTracker" sheetId="10" r:id="rId13"/>
-    <sheet name="CheuqeBookRequestExecutionTrack" sheetId="11" r:id="rId14"/>
-    <sheet name="CSM_ChargeWaiverTestData" sheetId="12" r:id="rId15"/>
-    <sheet name="TrasactionOnStaffAccountTestDat" sheetId="13" r:id="rId16"/>
-    <sheet name="TransactionOnStaffAccount_Execu" sheetId="14" r:id="rId17"/>
-    <sheet name="TransactionTestData" sheetId="15" r:id="rId18"/>
+    <sheet name="TransferAccount_614" sheetId="19" r:id="rId2"/>
+    <sheet name="CSM_Transactions_TestData" sheetId="17" r:id="rId3"/>
+    <sheet name="TestExecution" sheetId="16" r:id="rId4"/>
+    <sheet name="CSM_Login" sheetId="1" r:id="rId5"/>
+    <sheet name="CSMParam_login" sheetId="2" r:id="rId6"/>
+    <sheet name="SadsLogin" sheetId="3" r:id="rId7"/>
+    <sheet name="CSM_ClientProcessingStatement" sheetId="4" r:id="rId8"/>
+    <sheet name="CSM_LostAndFoundManagement" sheetId="5" r:id="rId9"/>
+    <sheet name="AmendChequeCardStatusTestData" sheetId="6" r:id="rId10"/>
+    <sheet name="AmendChequeCard_ExeTrack" sheetId="7" r:id="rId11"/>
+    <sheet name="CSM_Transaction" sheetId="8" r:id="rId12"/>
+    <sheet name="CSM_ChequeBookrequest" sheetId="9" r:id="rId13"/>
+    <sheet name="ChargeWaiverExecutionTracker" sheetId="10" r:id="rId14"/>
+    <sheet name="CheuqeBookRequestExecutionTrack" sheetId="11" r:id="rId15"/>
+    <sheet name="CSM_ChargeWaiverTestData" sheetId="12" r:id="rId16"/>
+    <sheet name="TrasactionOnStaffAccountTestDat" sheetId="13" r:id="rId17"/>
+    <sheet name="TransactionOnStaffAccount_Execu" sheetId="14" r:id="rId18"/>
+    <sheet name="TransactionTestData" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18174" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18248" uniqueCount="578">
   <si>
     <t>Stage</t>
   </si>
@@ -1706,9 +1707,6 @@
     <t>TRS_056</t>
   </si>
   <si>
-    <t>8730</t>
-  </si>
-  <si>
     <t>EndExecution</t>
   </si>
   <si>
@@ -1721,49 +1719,112 @@
     <t>VIMAL</t>
   </si>
   <si>
-    <t>8743</t>
+    <t>8759</t>
   </si>
   <si>
-    <t>8744</t>
+    <t>TA_008</t>
   </si>
   <si>
-    <t>8745</t>
+    <t>TA_062</t>
   </si>
   <si>
-    <t>8746</t>
+    <t>TA_063</t>
   </si>
   <si>
-    <t>8747</t>
+    <t>TA_064</t>
   </si>
   <si>
-    <t>8748</t>
+    <t>TA_065</t>
   </si>
   <si>
-    <t>8749</t>
+    <t>TA_066</t>
   </si>
   <si>
-    <t>8750</t>
+    <t>TA_067</t>
   </si>
   <si>
-    <t>8751</t>
+    <t>TA_008_D1</t>
   </si>
   <si>
-    <t>8753</t>
+    <t>TA_062_D1</t>
   </si>
   <si>
-    <t>8754</t>
+    <t>TA_063_D1</t>
   </si>
   <si>
-    <t>8755</t>
+    <t>TA_064_D1</t>
   </si>
   <si>
-    <t>8757</t>
+    <t>TA_065_D1</t>
   </si>
   <si>
-    <t>8758</t>
+    <t>TA_066_D1</t>
   </si>
   <si>
-    <t>8759</t>
+    <t>TA_067_D1</t>
+  </si>
+  <si>
+    <t>Transfer_Type</t>
+  </si>
+  <si>
+    <t>Designation branch</t>
+  </si>
+  <si>
+    <t>From_BranchCode</t>
+  </si>
+  <si>
+    <t>From_CurrencyCode</t>
+  </si>
+  <si>
+    <t>From_GLCode</t>
+  </si>
+  <si>
+    <t>From_CIFCode</t>
+  </si>
+  <si>
+    <t>From_SLCode</t>
+  </si>
+  <si>
+    <t>To_BranchCode</t>
+  </si>
+  <si>
+    <t>To_CurrencyCode</t>
+  </si>
+  <si>
+    <t>To_GLCode</t>
+  </si>
+  <si>
+    <t>To_CIFCode</t>
+  </si>
+  <si>
+    <t>To_SLCode</t>
+  </si>
+  <si>
+    <t>TxtFileLocation</t>
+  </si>
+  <si>
+    <t>ExcelFileLocation</t>
+  </si>
+  <si>
+    <t>From Branch To Branch</t>
+  </si>
+  <si>
+    <t>Transfer_Type_2</t>
+  </si>
+  <si>
+    <t>From GL To GL</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>993674</t>
+  </si>
+  <si>
+    <t>\\TestData\\CSMTestData.xlsx</t>
+  </si>
+  <si>
+    <t>\\TestData\\txt.txt</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1835,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;#,##0.00;[Red]&quot;-Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1900,6 +1961,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2168,7 +2236,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2194,8 +2262,12 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2330,8 +2402,14 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
     <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="8"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="16"/>
@@ -2341,6 +2419,7 @@
     <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Heading1 1" xfId="10"/>
     <cellStyle name="Heading1_20_1" xfId="11"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Result" xfId="1"/>
@@ -2657,7 +2736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2668,26 +2747,26 @@
   <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" style="89" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="89" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="89" width="15.28515625" collapsed="true"/>
-    <col min="5" max="7" style="89" width="11.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="89" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="89" width="15.42578125" collapsed="true"/>
-    <col min="10" max="13" customWidth="true" style="89" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="89" width="15.7109375" collapsed="true"/>
-    <col min="15" max="17" customWidth="true" style="89" width="13.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="89" width="12.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="89" width="14.85546875" collapsed="true"/>
-    <col min="20" max="22" style="89" width="11.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="89" width="13.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="89" width="14.85546875" collapsed="true"/>
-    <col min="25" max="16384" style="89" width="11.5703125" collapsed="true"/>
+    <col min="1" max="2" width="11.5703125" style="89" collapsed="1"/>
+    <col min="3" max="3" width="13" style="89" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" style="89" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="11.5703125" style="89" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="89" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="89" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="13.28515625" style="89" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.7109375" style="89" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="13" style="89" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.5703125" style="89" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.85546875" style="89" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="11.5703125" style="89" collapsed="1"/>
+    <col min="23" max="23" width="13" style="89" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.85546875" style="89" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="11.5703125" style="89" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="87" customFormat="1" ht="15">
@@ -52630,6 +52709,209 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="128" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="166" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="160.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="155.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="97.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="53" style="3" collapsed="1"/>
+    <col min="9" max="10" width="135.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="88.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="53" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="10.1945" bottom="10.1945" header="9.9976000000000003" footer="9.9976000000000003"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52638,16 +52920,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="36.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="13" width="32.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="53.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="48.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="13" width="50.5703125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="13" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="13" width="57.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="13" width="54.42578125" collapsed="true"/>
-    <col min="11" max="16384" style="13" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53" style="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50.5703125" style="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="43.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="57" style="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="54.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="18.28515625" style="13" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -52753,7 +53035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y12"/>
   <sheetViews>
@@ -52763,24 +53045,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="103.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="152.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="20" width="169.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="20" width="111.85546875" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="20" width="166.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="20" width="137.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="20" width="124.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="20" width="152.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="20" width="132.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="20" width="117.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="20" width="115.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="20" width="103.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="20" width="48.28515625" collapsed="true"/>
-    <col min="16" max="20" customWidth="true" style="20" width="112.28515625" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" style="20" width="78.85546875" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="20" width="129.42578125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="20" width="92.5703125" collapsed="true"/>
-    <col min="26" max="16384" style="20" width="52.85546875" collapsed="true"/>
+    <col min="1" max="1" width="103" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="152.42578125" style="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="169.42578125" style="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="111.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="166.42578125" style="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="137.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="124" style="20" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="152.42578125" style="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="132.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="117.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="115.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="103" style="20" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="48.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="16" max="20" width="112.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="78.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="129.42578125" style="20" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="92.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="26" max="16384" width="52.85546875" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15">
@@ -53525,7 +53807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -53535,20 +53817,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="95.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="163.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="20" width="37.85546875" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="20" width="143.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="20" width="125.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="20" width="152.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="20" width="147.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="20" width="104.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="20" width="128.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="20" width="125.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="20" width="102.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="20" width="66.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="20" width="82.85546875" collapsed="true"/>
-    <col min="15" max="16384" style="20" width="52.85546875" collapsed="true"/>
+    <col min="1" max="1" width="95" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="163.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="143.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="125.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="152.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="147.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="104.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="128.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="125.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="102.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="66.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="82.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="52.85546875" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
@@ -54393,7 +54675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -54403,15 +54685,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="32" width="48.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="32" width="252.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="32" width="190.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="32" width="37.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="32" width="220.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="32" width="147.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="32" width="145.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="32" width="140.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="20" width="47.42578125" collapsed="true"/>
+    <col min="1" max="1" width="48.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="252.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="190.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="220.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="147.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="145.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="140.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="47.42578125" style="20" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -54843,7 +55125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -54853,17 +55135,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="36" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="36" width="85.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="36" width="96.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="37.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="102.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="36" width="103.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="110.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="36" width="132.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="36" width="109.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="36" width="114.42578125" collapsed="true"/>
-    <col min="11" max="16384" style="36" width="31.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="85" style="36" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="96.7109375" style="36" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="102.85546875" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="103" style="36" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="110.7109375" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="132.5703125" style="36" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="109.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="114.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="31.85546875" style="36" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -55345,7 +55627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD16"/>
   <sheetViews>
@@ -55355,31 +55637,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="36" width="105.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="36" width="111.28515625" collapsed="true"/>
-    <col min="3" max="9" customWidth="true" style="36" width="84.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="36" width="92.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="36" width="106.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="36" width="104.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="36" width="82.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="36" width="80.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="36" width="93.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="36" width="103.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="36" width="85.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="36" width="67.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="36" width="77.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="36" width="112.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="36" width="111.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="36" width="110.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="36" width="110.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="36" width="105.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="36" width="79.5703125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="36" width="100.42578125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="36" width="63.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="36" width="92.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="36" width="69.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="36" width="57.28515625" collapsed="true"/>
-    <col min="31" max="16384" style="36" width="30.140625" collapsed="true"/>
+    <col min="1" max="1" width="105.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="111.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="84.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="92.5703125" style="36" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="106.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="104.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="82.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="80.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="93.7109375" style="36" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="103" style="36" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="85" style="36" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="67.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="77.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="112.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="111.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="110.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="110.7109375" style="36" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="105.7109375" style="36" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="79.5703125" style="36" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="100.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="63.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="92.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="69.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="57.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="30.140625" style="36" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15">
@@ -56360,7 +56642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -56370,18 +56652,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="41" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="41" width="46.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="41" width="29.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="41" width="66.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="41" width="71.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="41" width="65.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="41" width="78.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="41" width="56.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="41" width="59.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="41" width="59.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="41" width="33.140625" collapsed="true"/>
-    <col min="12" max="16384" style="41" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41" style="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.85546875" style="41" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="66" style="41" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="71.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="65.28515625" style="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="78.85546875" style="41" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.42578125" style="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="59.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="59.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="33.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="28.5703125" style="41" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
@@ -56668,7 +56950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -56678,17 +56960,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="41" width="26.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="41" width="59.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="41" width="55.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="41" width="33.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="41" width="74.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="41" width="63.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="41" width="66.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="41" width="64.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="41" width="64.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="41" width="63.7109375" collapsed="true"/>
-    <col min="11" max="16384" style="41" width="28.5703125" collapsed="true"/>
+    <col min="1" max="1" width="26.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59" style="41" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.85546875" style="41" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="74.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="66.140625" style="41" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" style="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="64" style="41" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="63.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="28.5703125" style="41" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -56882,7 +57164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC22"/>
   <sheetViews>
@@ -56890,32 +57172,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="48" width="45.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="48" width="41.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="48" width="51.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="48" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="48" width="26.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="48" width="51.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="48" width="65.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="48" width="52.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="50.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="48" width="36.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="48" width="34.28515625" collapsed="true"/>
-    <col min="12" max="13" style="48" width="22.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="48" width="34.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="48" width="30.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="48" width="19.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="48" width="27.7109375" collapsed="true"/>
-    <col min="18" max="18" style="32" width="22.85546875" collapsed="true"/>
-    <col min="19" max="22" style="48" width="22.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="48" width="19.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="48" width="34.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="48" width="39.28515625" collapsed="true"/>
-    <col min="26" max="26" style="48" width="22.85546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="48" width="29.85546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="48" width="36.7109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="48" width="32.42578125" collapsed="true"/>
-    <col min="30" max="16384" style="48" width="22.85546875" collapsed="true"/>
+    <col min="1" max="1" width="45.7109375" style="48" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51" style="48" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.5703125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51" style="48" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="65.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.85546875" style="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="50" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="36.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="34.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="22.85546875" style="48" collapsed="1"/>
+    <col min="14" max="14" width="34.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.85546875" style="48" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.7109375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.85546875" style="32" collapsed="1"/>
+    <col min="19" max="22" width="22.85546875" style="48" collapsed="1"/>
+    <col min="23" max="23" width="19.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.85546875" style="48" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="39.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.85546875" style="48" collapsed="1"/>
+    <col min="27" max="27" width="29.85546875" style="48" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="36.7109375" style="48" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="32.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="22.85546875" style="48" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
@@ -58148,38 +58430,509 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B23"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="15" max="17" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="19" max="22" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.57421875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="26" max="29" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15.75">
+      <c r="A1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>567</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="72"/>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="79" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>550</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="79" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>555</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="79" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="I8" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="N8" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q8" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P7" r:id="rId1"/>
+    <hyperlink ref="P8" r:id="rId2"/>
+    <hyperlink ref="P6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="22" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75">
@@ -58343,7 +59096,7 @@
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="81" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="Y2" s="80" t="s">
         <v>418</v>
@@ -60067,27 +60820,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="48" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="48" width="28.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="48" width="34.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="48" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="48" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="48" width="52.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="48" width="60.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="48" width="56.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="57.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="48" width="51.42578125" collapsed="true"/>
-    <col min="11" max="16384" style="48" width="22.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="48" collapsed="1"/>
+    <col min="2" max="2" width="28" style="48" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.7109375" style="48" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="60.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="57" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="51.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="22.85546875" style="48" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -60904,9 +61657,15 @@
     </row>
     <row r="48" spans="1:10" ht="15">
       <c r="A48" s="92"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>550</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E48" s="51"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49"/>
@@ -60916,9 +61675,15 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="92"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="17"/>
+      <c r="B49" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>551</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E49" s="51"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49"/>
@@ -60928,9 +61693,15 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="92"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="17"/>
+      <c r="B50" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>552</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E50" s="51"/>
       <c r="F50" s="49"/>
       <c r="G50" s="49"/>
@@ -60940,9 +61711,15 @@
     </row>
     <row r="51" spans="1:10" ht="15">
       <c r="A51" s="92"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="17"/>
+      <c r="B51" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="C51" s="91" t="s">
+        <v>553</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E51" s="51"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
@@ -60952,9 +61729,15 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="92"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>554</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E52" s="51"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
@@ -60964,9 +61747,15 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="92"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>555</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E53" s="51"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
@@ -60976,9 +61765,15 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="92"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="17"/>
+      <c r="B54" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>556</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E54" s="51"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
@@ -61051,10 +61846,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>92</v>
@@ -61489,7 +62284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -61499,12 +62294,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="124.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="152.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="118.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="99.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="117.7109375" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="53.0" collapsed="true"/>
+    <col min="1" max="1" width="124.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="152.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="118.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="99.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="117.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="53" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -61546,7 +62341,7 @@
         <v>390</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C3" s="94">
         <v>321</v>
@@ -61560,10 +62355,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="94" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>541</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>542</v>
       </c>
       <c r="C4" s="95">
         <v>123</v>
@@ -61581,7 +62376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -61591,12 +62386,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="103.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="125.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="121.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="153.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="193.140625" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="53.0" collapsed="true"/>
+    <col min="1" max="1" width="103" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="125.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="121" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="153" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="193.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="53" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -61673,7 +62468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -61683,10 +62478,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="185.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="164.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="53.0" collapsed="true"/>
+    <col min="1" max="1" width="53" style="3" collapsed="1"/>
+    <col min="2" max="2" width="185.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="164.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="53" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -61728,7 +62523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -61736,15 +62531,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="140.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="212.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="163.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="144.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="124.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="137.85546875" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="3" width="124.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="116.42578125" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="53.0" collapsed="true"/>
+    <col min="1" max="1" width="140.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="212.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="163.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="144.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="124.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="137.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="124.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="116.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="53" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -61898,7 +62693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -61906,15 +62701,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="195.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="273.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="147.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="191.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="181.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="140.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="161.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="216.140625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="53.0" collapsed="true"/>
+    <col min="1" max="1" width="195.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="273.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="147.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="191.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="181.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="140.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="161.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="216.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="53" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -62098,209 +62893,6 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="10.1945" bottom="10.1945" header="9.9976000000000003" footer="9.9976000000000003"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="128.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="166.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="160.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="155.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="97.42578125" collapsed="true"/>
-    <col min="7" max="8" style="3" width="53.0" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" style="3" width="135.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="88.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
-    <col min="13" max="16384" style="3" width="53.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="10.1945" bottom="10.1945" header="9.9976000000000003" footer="9.9976000000000003"/>
